--- a/writeup/scalability_tests.xlsx
+++ b/writeup/scalability_tests.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr109\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanjiazhao/Desktop/temp/erss-hwk4-pr109-yz476/writeup/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8F7229-75B4-9E43-8477-C110C4D3E54E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView xWindow="11880" yWindow="2960" windowWidth="28800" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -448,16 +455,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -480,7 +487,7 @@
         <v>28846</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -503,7 +510,7 @@
         <v>28498</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -526,7 +533,7 @@
         <v>27847</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -549,7 +556,7 @@
         <v>27762</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -572,7 +579,7 @@
         <v>28426</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -595,7 +602,7 @@
         <v>28858</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -618,7 +625,7 @@
         <v>27886</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -641,7 +648,7 @@
         <v>28767</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -664,7 +671,7 @@
         <v>28664</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -687,7 +694,7 @@
         <v>27789</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <f>AVERAGE(A1:A10)</f>
         <v>0</v>
@@ -719,7 +726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>MIN(A1:A10)</f>
         <v>0</v>
@@ -752,7 +759,7 @@
         <v>28334.3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>MAX(A1:A10)</f>
         <v>0</v>
@@ -781,265 +788,265 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0</v>
       </c>
       <c r="B18" s="1">
-        <v>26</v>
+        <v>919</v>
       </c>
       <c r="C18" s="1">
-        <v>907</v>
+        <v>72</v>
       </c>
       <c r="D18" s="1">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="E18" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H18" s="1">
-        <v>28846</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20034</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0</v>
       </c>
       <c r="B19" s="1">
-        <v>50</v>
+        <v>940</v>
       </c>
       <c r="C19" s="1">
-        <v>890</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1">
         <v>6</v>
       </c>
       <c r="H19" s="1">
-        <v>28498</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0</v>
       </c>
       <c r="B20" s="1">
-        <v>29</v>
+        <v>965</v>
       </c>
       <c r="C20" s="1">
-        <v>924</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1">
+        <v>21308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>966</v>
+      </c>
+      <c r="C21" s="1">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>7</v>
+      </c>
+      <c r="H21" s="1">
+        <v>20128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>967</v>
+      </c>
+      <c r="C22" s="1">
+        <v>29</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
         <v>3</v>
       </c>
-      <c r="H20" s="1">
-        <v>27847</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>71</v>
-      </c>
-      <c r="C21" s="1">
-        <v>860</v>
-      </c>
-      <c r="D21" s="1">
-        <v>58</v>
-      </c>
-      <c r="E21" s="1">
-        <v>6</v>
-      </c>
-      <c r="F21" s="1">
-        <v>5</v>
-      </c>
-      <c r="H21" s="1">
-        <v>27762</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>41</v>
-      </c>
-      <c r="C22" s="1">
-        <v>912</v>
-      </c>
-      <c r="D22" s="1">
-        <v>41</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2</v>
-      </c>
-      <c r="F22" s="1">
-        <v>4</v>
-      </c>
       <c r="H22" s="1">
-        <v>28426</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>19970</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0</v>
       </c>
       <c r="B23" s="1">
-        <v>31</v>
+        <v>968</v>
       </c>
       <c r="C23" s="1">
-        <v>876</v>
+        <v>22</v>
       </c>
       <c r="D23" s="1">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
         <v>4</v>
       </c>
       <c r="F23" s="1">
+        <v>6</v>
+      </c>
+      <c r="H23" s="1">
+        <v>20137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>971</v>
+      </c>
+      <c r="C24" s="1">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1">
         <v>3</v>
       </c>
-      <c r="H23" s="1">
-        <v>28858</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>70</v>
-      </c>
-      <c r="C24" s="1">
-        <v>862</v>
-      </c>
-      <c r="D24" s="1">
-        <v>61</v>
-      </c>
       <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>6</v>
+      </c>
+      <c r="H24" s="1">
+        <v>19948</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>937</v>
+      </c>
+      <c r="C25" s="1">
+        <v>57</v>
+      </c>
+      <c r="D25" s="1">
         <v>2</v>
       </c>
-      <c r="F24" s="1">
-        <v>5</v>
-      </c>
-      <c r="H24" s="1">
-        <v>27886</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>68</v>
-      </c>
-      <c r="C25" s="1">
-        <v>859</v>
-      </c>
-      <c r="D25" s="1">
-        <v>64</v>
-      </c>
       <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1">
+        <v>20545</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>967</v>
+      </c>
+      <c r="C26" s="1">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>6</v>
+      </c>
+      <c r="H26" s="1">
+        <v>20123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>975</v>
+      </c>
+      <c r="C27" s="1">
+        <v>18</v>
+      </c>
+      <c r="D27" s="1">
         <v>3</v>
       </c>
-      <c r="F25" s="1">
-        <v>6</v>
-      </c>
-      <c r="H25" s="1">
-        <v>28767</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>57</v>
-      </c>
-      <c r="C26" s="1">
-        <v>847</v>
-      </c>
-      <c r="D26" s="1">
-        <v>85</v>
-      </c>
-      <c r="E26" s="1">
-        <v>6</v>
-      </c>
-      <c r="F26" s="1">
-        <v>5</v>
-      </c>
-      <c r="H26" s="1">
-        <v>28664</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>54</v>
-      </c>
-      <c r="C27" s="1">
-        <v>913</v>
-      </c>
-      <c r="D27" s="1">
-        <v>26</v>
-      </c>
       <c r="E27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H27" s="1">
-        <v>27789</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>19914</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <f>AVERAGE(A18:A27)</f>
         <v>0</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" ref="B28" si="3">AVERAGE(B18:B27)</f>
-        <v>49.7</v>
+        <v>957.5</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ref="C28" si="4">AVERAGE(C18:C27)</f>
-        <v>885</v>
+        <v>35</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" ref="D28" si="5">AVERAGE(D18:D27)</f>
-        <v>57.5</v>
+        <v>1.5</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" ref="E28" si="6">AVERAGE(E18:E27)</f>
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" ref="F28" si="7">AVERAGE(F18:F27)</f>
-        <v>4.9000000000000004</v>
+        <v>5.3</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>0</v>
@@ -1048,26 +1055,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <f>MIN(A18:A27)</f>
         <v>0</v>
       </c>
       <c r="B29" s="6">
         <f t="shared" ref="B29:F29" si="8">MIN(B18:B27)</f>
-        <v>26</v>
+        <v>919</v>
       </c>
       <c r="C29" s="6">
         <f t="shared" si="8"/>
-        <v>847</v>
+        <v>18</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="8"/>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="8"/>
@@ -1078,39 +1085,39 @@
       </c>
       <c r="H29" s="1">
         <f>AVERAGE(H18:H27)</f>
-        <v>28334.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20236.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <f>MAX(A18:A27)</f>
         <v>0</v>
       </c>
       <c r="B30" s="9">
         <f t="shared" ref="B30:F30" si="9">MAX(B18:B27)</f>
-        <v>71</v>
+        <v>975</v>
       </c>
       <c r="C30" s="9">
         <f t="shared" si="9"/>
-        <v>924</v>
+        <v>72</v>
       </c>
       <c r="D30" s="9">
         <f t="shared" si="9"/>
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="E30" s="9">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F30" s="9">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>

--- a/writeup/scalability_tests.xlsx
+++ b/writeup/scalability_tests.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanjiazhao/Desktop/temp/erss-hwk4-pr109-yz476/writeup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr109\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8F7229-75B4-9E43-8477-C110C4D3E54E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="2960" windowWidth="28800" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,16 +454,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18:S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -486,8 +485,38 @@
       <c r="H1" s="1">
         <v>28846</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1" s="1">
+        <v>28846</v>
+      </c>
+      <c r="K1" s="1">
+        <v>28498</v>
+      </c>
+      <c r="L1" s="1">
+        <v>27847</v>
+      </c>
+      <c r="M1" s="1">
+        <v>27762</v>
+      </c>
+      <c r="N1" s="1">
+        <v>28426</v>
+      </c>
+      <c r="O1" s="1">
+        <v>28858</v>
+      </c>
+      <c r="P1" s="1">
+        <v>27886</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>28767</v>
+      </c>
+      <c r="R1" s="1">
+        <v>28664</v>
+      </c>
+      <c r="S1" s="1">
+        <v>27789</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -510,7 +539,7 @@
         <v>28498</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -533,7 +562,7 @@
         <v>27847</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -556,7 +585,7 @@
         <v>27762</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -579,7 +608,7 @@
         <v>28426</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -602,7 +631,7 @@
         <v>28858</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -625,7 +654,7 @@
         <v>27886</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -648,7 +677,7 @@
         <v>28767</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -671,7 +700,7 @@
         <v>28664</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -694,7 +723,7 @@
         <v>27789</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f>AVERAGE(A1:A10)</f>
         <v>0</v>
@@ -726,7 +755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>MIN(A1:A10)</f>
         <v>0</v>
@@ -759,7 +788,7 @@
         <v>28334.3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>MAX(A1:A10)</f>
         <v>0</v>
@@ -788,12 +817,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -815,8 +844,38 @@
       <c r="H18" s="1">
         <v>20034</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J18" s="1">
+        <v>20034</v>
+      </c>
+      <c r="K18" s="1">
+        <v>20260</v>
+      </c>
+      <c r="L18" s="1">
+        <v>21308</v>
+      </c>
+      <c r="M18" s="1">
+        <v>20128</v>
+      </c>
+      <c r="N18" s="1">
+        <v>19970</v>
+      </c>
+      <c r="O18" s="1">
+        <v>20137</v>
+      </c>
+      <c r="P18" s="1">
+        <v>19948</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>20545</v>
+      </c>
+      <c r="R18" s="1">
+        <v>20123</v>
+      </c>
+      <c r="S18" s="1">
+        <v>19914</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -839,7 +898,7 @@
         <v>20260</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -862,7 +921,7 @@
         <v>21308</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -885,7 +944,7 @@
         <v>20128</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -908,7 +967,7 @@
         <v>19970</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -931,7 +990,7 @@
         <v>20137</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -954,7 +1013,7 @@
         <v>19948</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -977,7 +1036,7 @@
         <v>20545</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -1000,7 +1059,7 @@
         <v>20123</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -1023,7 +1082,7 @@
         <v>19914</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f>AVERAGE(A18:A27)</f>
         <v>0</v>
@@ -1055,7 +1114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f>MIN(A18:A27)</f>
         <v>0</v>
@@ -1088,7 +1147,7 @@
         <v>20236.7</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <f>MAX(A18:A27)</f>
         <v>0</v>
@@ -1117,7 +1176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
